--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShinWonjoon\Documents\paper\두루미\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16036E10-9308-409B-8902-EB3C0ADF21E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C55161E-C3F6-4A36-AA60-53C3007C57BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82078899-23D7-4946-B71A-3DE675BE523E}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28785" windowHeight="13245" xr2:uid="{82078899-23D7-4946-B71A-3DE675BE523E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>epoch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,50 @@
       </rPr>
       <t>3</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>momentum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adagrad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMSprop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rmsprop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yello</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,21 +530,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1065F796-DED7-4F0D-AE0C-FF439A2B5AAB}">
-  <dimension ref="A1:S102"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="16" max="16" width="19.5" customWidth="1"/>
     <col min="17" max="17" width="12.875" customWidth="1"/>
+    <col min="18" max="18" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -508,7 +554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -524,6 +570,9 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
       <c r="I2" t="s">
         <v>7</v>
       </c>
@@ -540,7 +589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -573,7 +622,7 @@
         <v>5.0520644189999997</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -606,7 +655,7 @@
         <v>5.0089631079999997</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -642,7 +691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -687,7 +736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -736,7 +785,7 @@
         <v>20.086248398000002</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -769,7 +818,7 @@
         <v>5.0014083390000001</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -802,7 +851,7 @@
         <v>5.0491292479999998</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -838,7 +887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -883,7 +932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -920,7 +969,7 @@
         <v>442.70217323303211</v>
       </c>
       <c r="Q12">
-        <f t="shared" ref="Q3:S12" si="1">SUM(K$3:K$102)</f>
+        <f t="shared" ref="Q12:S12" si="1">SUM(K$3:K$102)</f>
         <v>474.97162652099985</v>
       </c>
       <c r="R12">
@@ -932,7 +981,7 @@
         <v>508.40086722200022</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -965,7 +1014,7 @@
         <v>4.9864723680000003</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -997,8 +1046,23 @@
       <c r="M14">
         <v>5.1924810409999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S14" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1030,8 +1094,27 @@
       <c r="M15">
         <v>4.9920387269999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15">
+        <f>AVERAGE(B3:$B$102)</f>
+        <v>0.21911810827600015</v>
+      </c>
+      <c r="R15">
+        <f>AVERAGE($B3:C$102)</f>
+        <v>0.13254739876435001</v>
+      </c>
+      <c r="S15">
+        <f>AVERAGE($B3:D$102)</f>
+        <v>0.10308617580556666</v>
+      </c>
+      <c r="T15">
+        <f>AVERAGE($B3:E$102)</f>
+        <v>7.9547461235549996E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1064,7 +1147,7 @@
         <v>5.0048854350000003</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1097,7 +1180,7 @@
         <v>5.0016455649999996</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1130,7 +1213,7 @@
         <v>5.0281140799999999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1162,8 +1245,14 @@
       <c r="M19">
         <v>5.0036191939999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1195,8 +1284,14 @@
       <c r="M20">
         <v>4.9917783739999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1228,8 +1323,14 @@
       <c r="M21">
         <v>4.9984667299999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1261,8 +1362,14 @@
       <c r="M22">
         <v>5.0251648429999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1295,7 +1402,7 @@
         <v>4.9941151140000004</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1328,7 +1435,7 @@
         <v>5.0176861290000003</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1361,7 +1468,7 @@
         <v>5.0609772209999999</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1394,7 +1501,7 @@
         <v>5.0228772160000004</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1427,7 +1534,7 @@
         <v>4.9988808630000001</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1460,7 +1567,7 @@
         <v>5.5740358829999996</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1493,7 +1600,7 @@
         <v>5.0472128390000002</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1526,7 +1633,7 @@
         <v>5.0174794199999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1559,7 +1666,7 @@
         <v>5.0002171989999997</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
